--- a/DS/Excel/lecture2.xlsx
+++ b/DS/Excel/lecture2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\Ritu_Kapadiya_Surat\DS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F939123-7CA0-4F09-96B4-EEEBAB6F2BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB7DA2-0B42-4CD7-B574-A896BB418C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Result" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Array functions" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Student_1">Sheet3!$B:$B</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
   <si>
     <t>Mon</t>
   </si>
@@ -335,6 +336,18 @@
   <si>
     <t>Number of students having attendance atleast 70% 
 and attended Independence Day</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Sum of products</t>
   </si>
 </sst>
 </file>
@@ -342,7 +355,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -381,7 +394,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1345,7 +1358,7 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:E15" si="0">B3+C3+F$2</f>
+        <f t="shared" ref="D3:D15" si="0">B3+C3+F$2</f>
         <v>67</v>
       </c>
       <c r="E3" t="s">
@@ -1589,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D88F7EC-C326-4730-946C-07670EB66F1F}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2064,4 +2077,156 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34593CE-C954-421E-B90F-12AA80DC1121}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <f>A2*B2</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">A3*B3</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C10)</f>
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14">
+        <f t="array" ref="C14">SUM(A2:A10*B2:B10)</f>
+        <v>4133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DS/Excel/lecture2.xlsx
+++ b/DS/Excel/lecture2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\Ritu_Kapadiya_Surat\DS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB7DA2-0B42-4CD7-B574-A896BB418C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD3586-C1E0-4C96-8423-A7E3A9CC4770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
   <si>
     <t>Mon</t>
   </si>
@@ -348,6 +348,84 @@
   </si>
   <si>
     <t>Sum of products</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Aayushi</t>
+  </si>
+  <si>
+    <t>Neeta</t>
+  </si>
+  <si>
+    <t>Hemal</t>
+  </si>
+  <si>
+    <t>Neepa</t>
+  </si>
+  <si>
+    <t>Anuj</t>
+  </si>
+  <si>
+    <t>Palak</t>
+  </si>
+  <si>
+    <t>Vishwa</t>
+  </si>
+  <si>
+    <t>Hetal</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Panchal</t>
+  </si>
+  <si>
+    <t>Chopra</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Bhatt</t>
+  </si>
+  <si>
+    <t>Surani</t>
+  </si>
+  <si>
+    <t>Jani</t>
+  </si>
+  <si>
+    <t>Raval</t>
+  </si>
+  <si>
+    <t>Sheth</t>
+  </si>
+  <si>
+    <t>Pandya</t>
   </si>
 </sst>
 </file>
@@ -2081,15 +2159,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34593CE-C954-421E-B90F-12AA80DC1121}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -2099,8 +2180,20 @@
       <c r="C1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22</v>
       </c>
@@ -2111,8 +2204,25 @@
         <f>A2*B2</f>
         <v>704</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE(E2, ". ", F2, " ", G2)</f>
+        <v>Mr. Anil Panchal</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(C2 &gt;400, "Big", "Small")</f>
+        <v>Big</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>14</v>
       </c>
@@ -2123,8 +2233,25 @@
         <f t="shared" ref="C3:C10" si="0">A3*B3</f>
         <v>420</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I10" si="1">CONCATENATE(E3, ". ", F3, " ", G3)</f>
+        <v>Ms. Aayushi Chopra</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="2">IF(C3 &gt;400, "Big", "Small")</f>
+        <v>Big</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2135,8 +2262,25 @@
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>Mrs. Neeta Patel</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>Big</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>25</v>
       </c>
@@ -2147,8 +2291,25 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>Dr. Hemal Bhatt</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>Big</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -2159,8 +2320,25 @@
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>Ms. Neepa Surani</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>Big</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>22</v>
       </c>
@@ -2171,8 +2349,25 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>Mr. Anuj Jani</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -2183,8 +2378,25 @@
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>Mrs. Palak Raval</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18</v>
       </c>
@@ -2195,8 +2407,25 @@
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>Ms. Vishwa Sheth</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24</v>
       </c>
@@ -2207,8 +2436,25 @@
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>Mrs. Hetal Pandya</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>Big</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>90</v>
       </c>
@@ -2217,7 +2463,7 @@
         <v>4133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -2228,5 +2474,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DS/Excel/lecture2.xlsx
+++ b/DS/Excel/lecture2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\Ritu_Kapadiya_Surat\DS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD3586-C1E0-4C96-8423-A7E3A9CC4770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6069094-A552-4ADB-AAB0-DF4D5E553A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
   <si>
     <t>Mon</t>
   </si>
@@ -426,6 +426,15 @@
   </si>
   <si>
     <t>Pandya</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Hello Mr. Panchal</t>
+  </si>
+  <si>
+    <t>Hi Aayushi</t>
   </si>
 </sst>
 </file>
@@ -2159,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34593CE-C954-421E-B90F-12AA80DC1121}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,7 +2179,7 @@
     <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -2189,11 +2198,14 @@
       <c r="G1" t="s">
         <v>121</v>
       </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
       <c r="I1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22</v>
       </c>
@@ -2213,16 +2225,14 @@
       <c r="G2" t="s">
         <v>122</v>
       </c>
-      <c r="I2" t="str">
-        <f>CONCATENATE(E2, ". ", F2, " ", G2)</f>
-        <v>Mr. Anil Panchal</v>
-      </c>
-      <c r="J2" t="str">
-        <f>IF(C2 &gt;400, "Big", "Small")</f>
-        <v>Big</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>14</v>
       </c>
@@ -2242,16 +2252,14 @@
       <c r="G3" t="s">
         <v>123</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I10" si="1">CONCATENATE(E3, ". ", F3, " ", G3)</f>
-        <v>Ms. Aayushi Chopra</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J10" si="2">IF(C3 &gt;400, "Big", "Small")</f>
-        <v>Big</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2271,16 +2279,11 @@
       <c r="G4" t="s">
         <v>124</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="1"/>
-        <v>Mrs. Neeta Patel</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="2"/>
-        <v>Big</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>25</v>
       </c>
@@ -2300,16 +2303,11 @@
       <c r="G5" t="s">
         <v>125</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v>Dr. Hemal Bhatt</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="2"/>
-        <v>Big</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -2329,16 +2327,11 @@
       <c r="G6" t="s">
         <v>126</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v>Ms. Neepa Surani</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="2"/>
-        <v>Big</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>22</v>
       </c>
@@ -2358,16 +2351,11 @@
       <c r="G7" t="s">
         <v>127</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v>Mr. Anuj Jani</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="2"/>
-        <v>Small</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -2387,16 +2375,11 @@
       <c r="G8" t="s">
         <v>128</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>Mrs. Palak Raval</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="2"/>
-        <v>Small</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18</v>
       </c>
@@ -2416,16 +2399,11 @@
       <c r="G9" t="s">
         <v>129</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v>Ms. Vishwa Sheth</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="2"/>
-        <v>Small</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24</v>
       </c>
@@ -2445,16 +2423,11 @@
       <c r="G10" t="s">
         <v>130</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v>Mrs. Hetal Pandya</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="2"/>
-        <v>Big</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>90</v>
       </c>
@@ -2463,7 +2436,7 @@
         <v>4133</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>104</v>
       </c>

--- a/DS/Excel/lecture2.xlsx
+++ b/DS/Excel/lecture2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\Ritu_Kapadiya_Surat\DS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6069094-A552-4ADB-AAB0-DF4D5E553A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78BFE58-4B89-43E9-886C-457CCE48BD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Array functions" sheetId="5" r:id="rId5"/>
+    <sheet name="Aug4" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Student_1">Sheet3!$B:$B</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="141">
   <si>
     <t>Mon</t>
   </si>
@@ -435,6 +436,27 @@
   </si>
   <si>
     <t>Hi Aayushi</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>AND</t>
   </si>
 </sst>
 </file>
@@ -479,12 +501,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2170,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34593CE-C954-421E-B90F-12AA80DC1121}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2449,4 +2472,197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E564B23A-61C2-4530-8439-87B9504F374F}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>39557</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>39557</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>39558</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>39558</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>39559</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>39560</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>39561</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>39562</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>39563</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>39564</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>39564</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>39565</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>39565</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>39566</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>39567</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>YEAR(A2)</f>
+        <v>2008</v>
+      </c>
+      <c r="B19">
+        <f>MONTH(A3)</f>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f>DAY(A4)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="b">
+        <f>OR(YEAR(A2) = 2009, B2&gt;=30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="b">
+        <f>AND(YEAR(A4) = 2008, B4&gt;=30)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DS/Excel/lecture2.xlsx
+++ b/DS/Excel/lecture2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\Ritu_Kapadiya_Surat\DS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78BFE58-4B89-43E9-886C-457CCE48BD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A343CC-3F36-49C9-AE14-3BB2D7C86229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
+    <workbookView xWindow="648" yWindow="288" windowWidth="22140" windowHeight="12036" activeTab="3" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E33CD0D-1834-4169-A36D-60DEF4E5E7D0}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1372,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="e">
-        <f t="shared" si="0"/>
+        <f>B16+C16</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0443595-CC02-4F23-BC87-4F9DE61E2981}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D88F7EC-C326-4730-946C-07670EB66F1F}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2194,7 +2194,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2478,7 +2478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E564B23A-61C2-4530-8439-87B9504F374F}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
